--- a/output/1Y_P10_KFSDIV.xlsx
+++ b/output/1Y_P10_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.3595</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.0875</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E3" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="F3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="H3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0263</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.1692</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E4" s="1">
-        <v>1956.6235</v>
+        <v>1952.7081</v>
       </c>
       <c r="F4" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2217</v>
+        <v>10.2422</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9739.369699999999</v>
+        <v>-9739.891900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0081</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.0872</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E5" s="1">
-        <v>2939.985</v>
+        <v>2934.1008</v>
       </c>
       <c r="F5" s="1">
-        <v>904.5529</v>
+        <v>902.7401</v>
       </c>
       <c r="H5" s="1">
-        <v>32596.2014</v>
+        <v>32465.8258</v>
       </c>
       <c r="I5" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="J5" s="1">
-        <v>32856.8317</v>
+        <v>32725.9339</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2041</v>
+        <v>10.2246</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10028.9589</v>
+        <v>-10028.9009</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.099</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.0976</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E6" s="1">
-        <v>3844.5379</v>
+        <v>3836.8409</v>
       </c>
       <c r="F6" s="1">
-        <v>903.7052</v>
+        <v>901.8958</v>
       </c>
       <c r="H6" s="1">
-        <v>42665.1435</v>
+        <v>42494.5482</v>
       </c>
       <c r="I6" s="1">
-        <v>231.6714</v>
+        <v>231.2072</v>
       </c>
       <c r="J6" s="1">
-        <v>42896.8149</v>
+        <v>42725.7554</v>
       </c>
       <c r="K6" s="1">
-        <v>40028.9589</v>
+        <v>40028.9009</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4119</v>
+        <v>10.4328</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10028.9589</v>
+        <v>-10028.9009</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0009</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.8505</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E7" s="1">
-        <v>4748.2431</v>
+        <v>4738.7367</v>
       </c>
       <c r="F7" s="1">
-        <v>924.2854</v>
+        <v>922.4268</v>
       </c>
       <c r="H7" s="1">
-        <v>51520.8116</v>
+        <v>51314.8325</v>
       </c>
       <c r="I7" s="1">
-        <v>202.7125</v>
+        <v>202.3063</v>
       </c>
       <c r="J7" s="1">
-        <v>51723.5241</v>
+        <v>51517.1388</v>
       </c>
       <c r="K7" s="1">
-        <v>50057.9179</v>
+        <v>50057.8018</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5424</v>
+        <v>10.5635</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1730.042</v>
+        <v>1726.5784</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8298.9169</v>
+        <v>-8302.3225</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0222</v>
+        <v>-0.0229</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.8576</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E8" s="1">
-        <v>5672.5285</v>
+        <v>5661.1635</v>
       </c>
       <c r="F8" s="1">
-        <v>870.1001</v>
+        <v>868.3037</v>
       </c>
       <c r="H8" s="1">
-        <v>67262.57399999999</v>
+        <v>66993.6433</v>
       </c>
       <c r="I8" s="1">
-        <v>1903.7956</v>
+        <v>1899.9838</v>
       </c>
       <c r="J8" s="1">
-        <v>69166.36960000001</v>
+        <v>68893.6271</v>
       </c>
       <c r="K8" s="1">
-        <v>60086.8768</v>
+        <v>60086.7027</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5926</v>
+        <v>10.6138</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10317.2993</v>
+        <v>-10316.664</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1206</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.5699</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E9" s="1">
-        <v>6542.6286</v>
+        <v>6529.4673</v>
       </c>
       <c r="F9" s="1">
-        <v>820.7941</v>
+        <v>819.1014</v>
       </c>
       <c r="H9" s="1">
-        <v>82240.1876</v>
+        <v>81910.86109999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1586.4963</v>
+        <v>1583.3198</v>
       </c>
       <c r="J9" s="1">
-        <v>83826.6839</v>
+        <v>83494.181</v>
       </c>
       <c r="K9" s="1">
-        <v>70404.17600000001</v>
+        <v>70403.3667</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7608</v>
+        <v>10.7824</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10317.2993</v>
+        <v>-10316.664</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0589</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.5994</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E10" s="1">
-        <v>7363.4227</v>
+        <v>7348.5687</v>
       </c>
       <c r="F10" s="1">
-        <v>758.6584</v>
+        <v>757.0974</v>
       </c>
       <c r="H10" s="1">
-        <v>100138.1305</v>
+        <v>99736.24370000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1269.1971</v>
+        <v>1266.6559</v>
       </c>
       <c r="J10" s="1">
-        <v>101407.3276</v>
+        <v>101002.8996</v>
       </c>
       <c r="K10" s="1">
-        <v>80721.47530000001</v>
+        <v>80720.0306</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9625</v>
+        <v>10.9845</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2944.1829</v>
+        <v>2938.2603</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7373.1164</v>
+        <v>-7378.4037</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0808</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.6663</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E11" s="1">
-        <v>8122.0811</v>
+        <v>8105.6661</v>
       </c>
       <c r="F11" s="1">
-        <v>770.3847</v>
+        <v>768.6659</v>
       </c>
       <c r="H11" s="1">
-        <v>119120.8781</v>
+        <v>118642.6349</v>
       </c>
       <c r="I11" s="1">
-        <v>3896.0807</v>
+        <v>3888.2522</v>
       </c>
       <c r="J11" s="1">
-        <v>123016.9588</v>
+        <v>122530.8871</v>
       </c>
       <c r="K11" s="1">
-        <v>91038.7746</v>
+        <v>91036.6946</v>
       </c>
       <c r="L11" s="1">
-        <v>11.2088</v>
+        <v>11.2312</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11298.6936</v>
+        <v>-11296.0841</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1042</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.701</v>
       </c>
       <c r="C12" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D12" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E12" s="1">
-        <v>8892.4658</v>
+        <v>8874.3321</v>
       </c>
       <c r="F12" s="1">
-        <v>768.5663</v>
+        <v>766.85</v>
       </c>
       <c r="H12" s="1">
-        <v>130728.1403</v>
+        <v>130200.6501</v>
       </c>
       <c r="I12" s="1">
-        <v>2597.3871</v>
+        <v>2592.1681</v>
       </c>
       <c r="J12" s="1">
-        <v>133325.5274</v>
+        <v>132792.8183</v>
       </c>
       <c r="K12" s="1">
-        <v>102337.4681</v>
+        <v>102332.7787</v>
       </c>
       <c r="L12" s="1">
-        <v>11.5083</v>
+        <v>11.5313</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11298.6936</v>
+        <v>-11296.0841</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.8109</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E13" s="1">
-        <v>9661.0322</v>
+        <v>9641.1821</v>
       </c>
       <c r="F13" s="1">
-        <v>818.0997</v>
+        <v>816.2736</v>
       </c>
       <c r="H13" s="1">
-        <v>133427.5491</v>
+        <v>132887.3047</v>
       </c>
       <c r="I13" s="1">
-        <v>1298.6936</v>
+        <v>1296.0841</v>
       </c>
       <c r="J13" s="1">
-        <v>134726.2427</v>
+        <v>134183.3888</v>
       </c>
       <c r="K13" s="1">
-        <v>113636.1617</v>
+        <v>113628.8627</v>
       </c>
       <c r="L13" s="1">
-        <v>11.7623</v>
+        <v>11.7858</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>8003.2193</v>
+        <v>7986.8988</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3295.4743</v>
+        <v>-3309.1852</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.06</v>
+        <v>-0.0603</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.9322</v>
       </c>
       <c r="C14" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D14" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E14" s="1">
-        <v>10479.1319</v>
+        <v>10457.4557</v>
       </c>
       <c r="F14" s="1">
-        <v>-10479.1319</v>
+        <v>-10457.4557</v>
       </c>
       <c r="H14" s="1">
-        <v>145997.3614</v>
+        <v>145403.601</v>
       </c>
       <c r="I14" s="1">
-        <v>8003.2193</v>
+        <v>7986.8988</v>
       </c>
       <c r="J14" s="1">
-        <v>154000.5806</v>
+        <v>153390.4998</v>
       </c>
       <c r="K14" s="1">
-        <v>124934.8553</v>
+        <v>124924.9468</v>
       </c>
       <c r="L14" s="1">
-        <v>11.9223</v>
+        <v>11.946</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>145997.3614</v>
+        <v>145403.601</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0641</v>
+        <v>0.0639</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.3595</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.0875</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E3" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="F3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0263</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.1692</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E4" s="1">
-        <v>1956.6235</v>
+        <v>1952.7081</v>
       </c>
       <c r="F4" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2217</v>
+        <v>10.2422</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9739.369699999999</v>
+        <v>-9739.891900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0081</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.0872</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E5" s="1">
-        <v>2939.985</v>
+        <v>2934.1008</v>
       </c>
       <c r="F5" s="1">
-        <v>667.7789</v>
+        <v>680.9014</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32596.2014</v>
+        <v>32465.8258</v>
       </c>
       <c r="I5" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="J5" s="1">
-        <v>32856.8317</v>
+        <v>32725.9339</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2041</v>
+        <v>10.2246</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7403.7986</v>
+        <v>-7564.4062</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.099</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.0976</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E6" s="1">
-        <v>3607.7639</v>
+        <v>3615.0023</v>
       </c>
       <c r="F6" s="1">
-        <v>897.7148</v>
+        <v>899.5074</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40037.5207</v>
+        <v>40037.596</v>
       </c>
       <c r="I6" s="1">
-        <v>2856.8317</v>
+        <v>2695.7019</v>
       </c>
       <c r="J6" s="1">
-        <v>42894.3525</v>
+        <v>42733.2979</v>
       </c>
       <c r="K6" s="1">
-        <v>37403.7986</v>
+        <v>37564.4062</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3676</v>
+        <v>10.3913</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9962.479300000001</v>
+        <v>-10002.3421</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0009</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.8505</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E7" s="1">
-        <v>4505.4787</v>
+        <v>4514.5096</v>
       </c>
       <c r="F7" s="1">
-        <v>1024.2204</v>
+        <v>1026.2705</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48886.6962</v>
+        <v>48886.7219</v>
       </c>
       <c r="I7" s="1">
-        <v>2894.3525</v>
+        <v>2693.3598</v>
       </c>
       <c r="J7" s="1">
-        <v>51781.0487</v>
+        <v>51580.0817</v>
       </c>
       <c r="K7" s="1">
-        <v>47366.2778</v>
+        <v>47566.7483</v>
       </c>
       <c r="L7" s="1">
-        <v>10.513</v>
+        <v>10.5364</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1623.4938</v>
+        <v>1626.751</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9489.809999999999</v>
+        <v>-9531.1698</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.021</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.8576</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E8" s="1">
-        <v>5529.6991</v>
+        <v>5540.7801</v>
       </c>
       <c r="F8" s="1">
-        <v>373.6878</v>
+        <v>374.4296</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>65568.96000000001</v>
+        <v>65569.03810000001</v>
       </c>
       <c r="I8" s="1">
-        <v>3404.5425</v>
+        <v>3162.19</v>
       </c>
       <c r="J8" s="1">
-        <v>68973.5024</v>
+        <v>68731.22809999999</v>
       </c>
       <c r="K8" s="1">
-        <v>58479.5816</v>
+        <v>58724.6691</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5755</v>
+        <v>10.5986</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4431.04</v>
+        <v>-4448.7473</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1164</v>
+        <v>0.1161</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.5699</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E9" s="1">
-        <v>5903.3869</v>
+        <v>5915.2097</v>
       </c>
       <c r="F9" s="1">
-        <v>461.0234</v>
+        <v>461.9346</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>74204.9825</v>
+        <v>74205.1226</v>
       </c>
       <c r="I9" s="1">
-        <v>8973.502399999999</v>
+        <v>8713.4427</v>
       </c>
       <c r="J9" s="1">
-        <v>83178.4849</v>
+        <v>82918.5653</v>
       </c>
       <c r="K9" s="1">
-        <v>62910.6217</v>
+        <v>63173.4164</v>
       </c>
       <c r="L9" s="1">
-        <v>10.6567</v>
+        <v>10.6798</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5795.0175</v>
+        <v>-5818.1127</v>
       </c>
       <c r="Q9" s="3">
         <v>0.0532</v>
@@ -1874,46 +1874,46 @@
         <v>13.5994</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E10" s="1">
-        <v>6364.4102</v>
+        <v>6377.1443</v>
       </c>
       <c r="F10" s="1">
-        <v>253.5288</v>
+        <v>254.0577</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>86552.1603</v>
+        <v>86551.8781</v>
       </c>
       <c r="I10" s="1">
-        <v>13178.4849</v>
+        <v>12895.3299</v>
       </c>
       <c r="J10" s="1">
-        <v>99730.6452</v>
+        <v>99447.208</v>
       </c>
       <c r="K10" s="1">
-        <v>68705.63920000001</v>
+        <v>68991.5292</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7953</v>
+        <v>10.8186</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2656.5241</v>
+        <v>2661.8444</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-791.3156</v>
+        <v>-800.0983</v>
       </c>
       <c r="Q10" s="3">
         <v>0.0703</v>
@@ -1927,34 +1927,34 @@
         <v>14.6663</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E11" s="1">
-        <v>6617.939</v>
+        <v>6631.202</v>
       </c>
       <c r="F11" s="1">
-        <v>200.4133</v>
+        <v>200.7991</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>97060.67909999999</v>
+        <v>97060.9039</v>
       </c>
       <c r="I11" s="1">
-        <v>22387.1693</v>
+        <v>22095.2316</v>
       </c>
       <c r="J11" s="1">
-        <v>119447.8484</v>
+        <v>119156.1355</v>
       </c>
       <c r="K11" s="1">
-        <v>72153.4789</v>
+        <v>72453.4718</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9027</v>
+        <v>10.9261</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2939.3209</v>
+        <v>-2950.883</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0886</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>14.701</v>
       </c>
       <c r="C12" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D12" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E12" s="1">
-        <v>6818.3523</v>
+        <v>6832.0011</v>
       </c>
       <c r="F12" s="1">
-        <v>664.1319</v>
+        <v>665.477</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100236.5968</v>
+        <v>100236.3872</v>
       </c>
       <c r="I12" s="1">
-        <v>29447.8484</v>
+        <v>29144.3486</v>
       </c>
       <c r="J12" s="1">
-        <v>129684.4453</v>
+        <v>129380.7359</v>
       </c>
       <c r="K12" s="1">
-        <v>75092.7997</v>
+        <v>75404.3548</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0133</v>
+        <v>11.0369</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9763.403200000001</v>
+        <v>-9802.8094</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0018</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.8109</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E13" s="1">
-        <v>7482.4842</v>
+        <v>7497.4781</v>
       </c>
       <c r="F13" s="1">
-        <v>1206.3051</v>
+        <v>1208.7098</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>103339.8408</v>
+        <v>103339.9902</v>
       </c>
       <c r="I13" s="1">
-        <v>29684.4453</v>
+        <v>29341.5393</v>
       </c>
       <c r="J13" s="1">
-        <v>133024.2861</v>
+        <v>132681.5295</v>
       </c>
       <c r="K13" s="1">
-        <v>84856.2029</v>
+        <v>85207.1642</v>
       </c>
       <c r="L13" s="1">
-        <v>11.3406</v>
+        <v>11.3648</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6136.517</v>
+        <v>6148.801</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10523.6421</v>
+        <v>-10578.0505</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0477</v>
+        <v>-0.0481</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.9322</v>
       </c>
       <c r="C14" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D14" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E14" s="1">
-        <v>8688.7893</v>
+        <v>8706.187900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8688.7893</v>
+        <v>-8706.187900000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121053.9501</v>
+        <v>121053.4487</v>
       </c>
       <c r="I14" s="1">
-        <v>29160.8031</v>
+        <v>28763.4888</v>
       </c>
       <c r="J14" s="1">
-        <v>150214.7533</v>
+        <v>149816.9375</v>
       </c>
       <c r="K14" s="1">
-        <v>101516.3621</v>
+        <v>101934.0157</v>
       </c>
       <c r="L14" s="1">
-        <v>11.6836</v>
+        <v>11.7082</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121053.9501</v>
+        <v>121053.4487</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0503</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2154,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>10.3595</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.0875</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E3" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="F3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0263</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>10.1692</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E4" s="1">
-        <v>1956.6235</v>
+        <v>1952.7081</v>
       </c>
       <c r="F4" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2217</v>
+        <v>10.2422</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9739.369699999999</v>
+        <v>-9739.891900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0081</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.0872</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E5" s="1">
-        <v>2939.985</v>
+        <v>2934.1008</v>
       </c>
       <c r="F5" s="1">
-        <v>694.9275</v>
+        <v>708.1044000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32596.2014</v>
+        <v>32465.8258</v>
       </c>
       <c r="I5" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="J5" s="1">
-        <v>32856.8317</v>
+        <v>32725.9339</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2041</v>
+        <v>10.2246</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7704.7998</v>
+        <v>-7866.6153</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.099</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.0976</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E6" s="1">
-        <v>3634.9124</v>
+        <v>3642.2053</v>
       </c>
       <c r="F6" s="1">
-        <v>915.8468</v>
+        <v>917.6758</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40338.8043</v>
+        <v>40338.8802</v>
       </c>
       <c r="I6" s="1">
-        <v>2555.8305</v>
+        <v>2393.4928</v>
       </c>
       <c r="J6" s="1">
-        <v>42894.6348</v>
+        <v>42732.373</v>
       </c>
       <c r="K6" s="1">
-        <v>37704.7998</v>
+        <v>37866.6153</v>
       </c>
       <c r="L6" s="1">
-        <v>10.373</v>
+        <v>10.3966</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10163.7019</v>
+        <v>-10204.3709</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0009</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.8505</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E7" s="1">
-        <v>4550.7593</v>
+        <v>4559.881</v>
       </c>
       <c r="F7" s="1">
-        <v>1048.5236</v>
+        <v>1050.6223</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49378.0136</v>
+        <v>49378.0396</v>
       </c>
       <c r="I7" s="1">
-        <v>2392.1286</v>
+        <v>2189.122</v>
       </c>
       <c r="J7" s="1">
-        <v>51770.1422</v>
+        <v>51567.1616</v>
       </c>
       <c r="K7" s="1">
-        <v>47868.5018</v>
+        <v>48070.9861</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5188</v>
+        <v>10.5422</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1635.7106</v>
+        <v>1638.9924</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9741.294599999999</v>
+        <v>-9783.688899999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0213</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.8576</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E8" s="1">
-        <v>5599.2829</v>
+        <v>5610.5034</v>
       </c>
       <c r="F8" s="1">
-        <v>393.3964</v>
+        <v>394.1776</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>66394.0566</v>
+        <v>66394.1357</v>
       </c>
       <c r="I8" s="1">
-        <v>2650.834</v>
+        <v>2405.4331</v>
       </c>
       <c r="J8" s="1">
-        <v>69044.8906</v>
+        <v>68799.56879999999</v>
       </c>
       <c r="K8" s="1">
-        <v>59245.5069</v>
+        <v>59493.6674</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5809</v>
+        <v>10.604</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4664.7373</v>
+        <v>-4683.3816</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1178</v>
+        <v>0.1175</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.5699</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E9" s="1">
-        <v>5992.6793</v>
+        <v>6004.6809</v>
       </c>
       <c r="F9" s="1">
-        <v>484.2289</v>
+        <v>485.1864</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>75327.3793</v>
+        <v>75327.52159999999</v>
       </c>
       <c r="I9" s="1">
-        <v>7986.0967</v>
+        <v>7722.0515</v>
       </c>
       <c r="J9" s="1">
-        <v>83313.4761</v>
+        <v>83049.573</v>
       </c>
       <c r="K9" s="1">
-        <v>63910.2442</v>
+        <v>64177.049</v>
       </c>
       <c r="L9" s="1">
-        <v>10.6647</v>
+        <v>10.6878</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6086.7085</v>
+        <v>-6110.9712</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.054</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.5994</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E10" s="1">
-        <v>6476.9082</v>
+        <v>6489.8673</v>
       </c>
       <c r="F10" s="1">
-        <v>274.9455</v>
+        <v>275.5177</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>88082.06479999999</v>
+        <v>88081.7776</v>
       </c>
       <c r="I10" s="1">
-        <v>11899.3882</v>
+        <v>11611.0803</v>
       </c>
       <c r="J10" s="1">
-        <v>99981.45299999999</v>
+        <v>99692.8579</v>
       </c>
       <c r="K10" s="1">
-        <v>69996.95269999999</v>
+        <v>70288.0202</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8072</v>
+        <v>10.8304</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2696.7057</v>
+        <v>2702.1064</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-1042.3878</v>
+        <v>-1052.2625</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07149999999999999</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.6663</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E11" s="1">
-        <v>6751.8536</v>
+        <v>6765.385</v>
       </c>
       <c r="F11" s="1">
-        <v>221.9751</v>
+        <v>222.4038</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99024.71090000001</v>
+        <v>99024.9402</v>
       </c>
       <c r="I11" s="1">
-        <v>20857.0004</v>
+        <v>20558.8178</v>
       </c>
       <c r="J11" s="1">
-        <v>119881.7113</v>
+        <v>119583.7581</v>
       </c>
       <c r="K11" s="1">
-        <v>73736.0462</v>
+        <v>74042.389</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9209</v>
+        <v>10.9443</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3255.5532</v>
+        <v>-3268.3789</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.09</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.701</v>
       </c>
       <c r="C12" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D12" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E12" s="1">
-        <v>6973.8287</v>
+        <v>6987.7888</v>
       </c>
       <c r="F12" s="1">
-        <v>698.5518</v>
+        <v>699.9662</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>102522.2559</v>
+        <v>102522.0416</v>
       </c>
       <c r="I12" s="1">
-        <v>27601.4472</v>
+        <v>27290.4389</v>
       </c>
       <c r="J12" s="1">
-        <v>130123.7032</v>
+        <v>129812.4805</v>
       </c>
       <c r="K12" s="1">
-        <v>76991.59940000001</v>
+        <v>77310.768</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0401</v>
+        <v>11.0637</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10269.4095</v>
+        <v>-10310.8518</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.8109</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E13" s="1">
-        <v>7672.3805</v>
+        <v>7687.7549</v>
       </c>
       <c r="F13" s="1">
-        <v>1259.378</v>
+        <v>1261.8887</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>105962.4795</v>
+        <v>105962.6327</v>
       </c>
       <c r="I13" s="1">
-        <v>27332.0378</v>
+        <v>26979.5871</v>
       </c>
       <c r="J13" s="1">
-        <v>133294.5173</v>
+        <v>132942.2197</v>
       </c>
       <c r="K13" s="1">
-        <v>87261.0088</v>
+        <v>87621.6198</v>
       </c>
       <c r="L13" s="1">
-        <v>11.3734</v>
+        <v>11.3976</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6276.4458</v>
+        <v>6289.0099</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11116.6983</v>
+        <v>-11173.7636</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0487</v>
+        <v>-0.0491</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.9322</v>
       </c>
       <c r="C14" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D14" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E14" s="1">
-        <v>8931.7585</v>
+        <v>8949.643700000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8931.7585</v>
+        <v>-8949.643700000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124439.046</v>
+        <v>124438.5306</v>
       </c>
       <c r="I14" s="1">
-        <v>26215.3394</v>
+        <v>25805.8235</v>
       </c>
       <c r="J14" s="1">
-        <v>150654.3855</v>
+        <v>150244.3541</v>
       </c>
       <c r="K14" s="1">
-        <v>104654.153</v>
+        <v>105084.3933</v>
       </c>
       <c r="L14" s="1">
-        <v>11.7171</v>
+        <v>11.7417</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124439.046</v>
+        <v>124438.5306</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0514</v>
+        <v>0.0511</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.3595</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.0875</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E3" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="F3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0263</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>10.1692</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E4" s="1">
-        <v>1956.6235</v>
+        <v>1952.7081</v>
       </c>
       <c r="F4" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2217</v>
+        <v>10.2422</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9739.369699999999</v>
+        <v>-9739.891900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0081</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.0872</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E5" s="1">
-        <v>2939.985</v>
+        <v>2934.1008</v>
       </c>
       <c r="F5" s="1">
-        <v>722.2571</v>
+        <v>735.4888999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32596.2014</v>
+        <v>32465.8258</v>
       </c>
       <c r="I5" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="J5" s="1">
-        <v>32856.8317</v>
+        <v>32725.9339</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2041</v>
+        <v>10.2246</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8007.8086</v>
+        <v>-8170.8399</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.099</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.0976</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E6" s="1">
-        <v>3662.242</v>
+        <v>3669.5897</v>
       </c>
       <c r="F6" s="1">
-        <v>934.2518</v>
+        <v>936.1176</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40642.0973</v>
+        <v>40642.1737</v>
       </c>
       <c r="I6" s="1">
-        <v>2252.8217</v>
+        <v>2089.2682</v>
       </c>
       <c r="J6" s="1">
-        <v>42894.9191</v>
+        <v>42731.442</v>
       </c>
       <c r="K6" s="1">
-        <v>38007.8086</v>
+        <v>38170.8399</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3783</v>
+        <v>10.4019</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10367.9528</v>
+        <v>-10409.44</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0009</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.8505</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E7" s="1">
-        <v>4596.4938</v>
+        <v>4605.7073</v>
       </c>
       <c r="F7" s="1">
-        <v>1073.3048</v>
+        <v>1075.4532</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49874.2565</v>
+        <v>49874.2827</v>
       </c>
       <c r="I7" s="1">
-        <v>1884.869</v>
+        <v>1679.8282</v>
       </c>
       <c r="J7" s="1">
-        <v>51759.1254</v>
+        <v>51554.1109</v>
       </c>
       <c r="K7" s="1">
-        <v>48375.7614</v>
+        <v>48580.2799</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5245</v>
+        <v>10.5478</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1648.0089</v>
+        <v>1651.3154</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9997.885200000001</v>
+        <v>-10041.3348</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0215</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.8576</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E8" s="1">
-        <v>5669.7987</v>
+        <v>5681.1605</v>
       </c>
       <c r="F8" s="1">
-        <v>413.6712</v>
+        <v>414.4929</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67230.2049</v>
+        <v>67230.285</v>
       </c>
       <c r="I8" s="1">
-        <v>1886.9838</v>
+        <v>1638.4935</v>
       </c>
       <c r="J8" s="1">
-        <v>69117.18859999999</v>
+        <v>68868.7785</v>
       </c>
       <c r="K8" s="1">
-        <v>60021.6555</v>
+        <v>60272.93</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5862</v>
+        <v>10.6093</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4905.1473</v>
+        <v>-4924.7555</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1191</v>
+        <v>0.1188</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.5699</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E9" s="1">
-        <v>6083.4699</v>
+        <v>6095.6533</v>
       </c>
       <c r="F9" s="1">
-        <v>508.2059</v>
+        <v>509.2113</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>76468.60769999999</v>
+        <v>76468.7521</v>
       </c>
       <c r="I9" s="1">
-        <v>6981.8365</v>
+        <v>6713.738</v>
       </c>
       <c r="J9" s="1">
-        <v>83450.4442</v>
+        <v>83182.49000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>64926.8028</v>
+        <v>65197.6855</v>
       </c>
       <c r="L9" s="1">
-        <v>10.6727</v>
+        <v>10.6958</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6388.0979</v>
+        <v>-6413.5669</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0548</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.5994</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E10" s="1">
-        <v>6591.6758</v>
+        <v>6604.8646</v>
       </c>
       <c r="F10" s="1">
-        <v>297.2511</v>
+        <v>297.8684</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89642.83590000001</v>
+        <v>89642.5435</v>
       </c>
       <c r="I10" s="1">
-        <v>10593.7386</v>
+        <v>10300.1711</v>
       </c>
       <c r="J10" s="1">
-        <v>100236.5744</v>
+        <v>99942.71460000001</v>
       </c>
       <c r="K10" s="1">
-        <v>71314.9007</v>
+        <v>71611.2524</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8189</v>
+        <v>10.8422</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2737.5614</v>
+        <v>2743.044</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-1304.8754</v>
+        <v>-1315.8892</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0726</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.6663</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E11" s="1">
-        <v>6888.9269</v>
+        <v>6902.733</v>
       </c>
       <c r="F11" s="1">
-        <v>244.5782</v>
+        <v>245.0518</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101035.0688</v>
+        <v>101035.3028</v>
       </c>
       <c r="I11" s="1">
-        <v>19288.8632</v>
+        <v>18984.2819</v>
       </c>
       <c r="J11" s="1">
-        <v>120323.932</v>
+        <v>120019.5847</v>
       </c>
       <c r="K11" s="1">
-        <v>75357.33749999999</v>
+        <v>75670.1856</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9389</v>
+        <v>10.9624</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3587.0566</v>
+        <v>-3601.2072</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0915</v>
+        <v>0.0917</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>14.701</v>
       </c>
       <c r="C12" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D12" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E12" s="1">
-        <v>7133.5051</v>
+        <v>7147.7848</v>
       </c>
       <c r="F12" s="1">
-        <v>734.5547</v>
+        <v>736.0416</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104869.658</v>
+        <v>104869.4388</v>
       </c>
       <c r="I12" s="1">
-        <v>25701.8066</v>
+        <v>25383.0747</v>
       </c>
       <c r="J12" s="1">
-        <v>130571.4646</v>
+        <v>130252.5135</v>
       </c>
       <c r="K12" s="1">
-        <v>78944.3941</v>
+        <v>79271.3928</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0667</v>
+        <v>11.0903</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10798.6886</v>
+        <v>-10842.2608</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.8109</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E13" s="1">
-        <v>7868.0598</v>
+        <v>7883.8263</v>
       </c>
       <c r="F13" s="1">
-        <v>1314.9066</v>
+        <v>1317.5282</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>108664.9867</v>
+        <v>108665.1437</v>
       </c>
       <c r="I13" s="1">
-        <v>24903.1179</v>
+        <v>24540.814</v>
       </c>
       <c r="J13" s="1">
-        <v>133568.1046</v>
+        <v>133205.9577</v>
       </c>
       <c r="K13" s="1">
-        <v>89743.0828</v>
+        <v>90113.6535</v>
       </c>
       <c r="L13" s="1">
-        <v>11.406</v>
+        <v>11.4302</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6420.1546</v>
+        <v>6433.0063</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11739.8889</v>
+        <v>-11799.7394</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0498</v>
+        <v>-0.0502</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.9322</v>
       </c>
       <c r="C14" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D14" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E14" s="1">
-        <v>9182.966399999999</v>
+        <v>9201.354499999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9182.966399999999</v>
+        <v>-9201.354499999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127938.924</v>
+        <v>127938.394</v>
       </c>
       <c r="I14" s="1">
-        <v>23163.229</v>
+        <v>22741.0745</v>
       </c>
       <c r="J14" s="1">
-        <v>151102.153</v>
+        <v>150679.4685</v>
       </c>
       <c r="K14" s="1">
-        <v>107903.1262</v>
+        <v>108346.3992</v>
       </c>
       <c r="L14" s="1">
-        <v>11.7504</v>
+        <v>11.775</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127938.924</v>
+        <v>127938.394</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0525</v>
+        <v>0.0522</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.3595</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.0875</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E3" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="F3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9737.4391</v>
+        <v>9698.4673</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0263</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.1692</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E4" s="1">
-        <v>1956.6235</v>
+        <v>1952.7081</v>
       </c>
       <c r="F4" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19897.2952</v>
+        <v>19817.8387</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2217</v>
+        <v>10.2422</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9739.369699999999</v>
+        <v>-9739.891900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0081</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.0872</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E5" s="1">
-        <v>2939.985</v>
+        <v>2934.1008</v>
       </c>
       <c r="F5" s="1">
-        <v>749.7684</v>
+        <v>763.0554</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32596.2014</v>
+        <v>32465.8258</v>
       </c>
       <c r="I5" s="1">
-        <v>260.6303</v>
+        <v>260.1081</v>
       </c>
       <c r="J5" s="1">
-        <v>32856.8317</v>
+        <v>32725.9339</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2041</v>
+        <v>10.2246</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8312.8323</v>
+        <v>-8477.087600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.099</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.0976</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E6" s="1">
-        <v>3689.7534</v>
+        <v>3697.1562</v>
       </c>
       <c r="F6" s="1">
-        <v>952.9324</v>
+        <v>954.8355</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40947.4072</v>
+        <v>40947.4842</v>
       </c>
       <c r="I6" s="1">
-        <v>1947.798</v>
+        <v>1783.0205</v>
       </c>
       <c r="J6" s="1">
-        <v>42895.2052</v>
+        <v>42730.5047</v>
       </c>
       <c r="K6" s="1">
-        <v>38312.8323</v>
+        <v>38477.0876</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3836</v>
+        <v>10.4072</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10575.2621</v>
+        <v>-10617.5798</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0009</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.8505</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E7" s="1">
-        <v>4642.6857</v>
+        <v>4651.9917</v>
       </c>
       <c r="F7" s="1">
-        <v>1048.1117</v>
+        <v>1026.9622</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50375.4616</v>
+        <v>50375.4881</v>
       </c>
       <c r="I7" s="1">
-        <v>1372.5359</v>
+        <v>1165.4407</v>
       </c>
       <c r="J7" s="1">
-        <v>51747.9975</v>
+        <v>51540.9288</v>
       </c>
       <c r="K7" s="1">
-        <v>48888.0944</v>
+        <v>49094.6674</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5301</v>
+        <v>10.5535</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1660.389</v>
+        <v>1663.7203</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9712.1469</v>
+        <v>-9501.7204</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0217</v>
+        <v>-0.0226</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.8576</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E8" s="1">
-        <v>5690.7974</v>
+        <v>5678.9539</v>
       </c>
       <c r="F8" s="1">
-        <v>484.9837</v>
+        <v>509.1956</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67479.19960000001</v>
+        <v>67204.1725</v>
       </c>
       <c r="I8" s="1">
-        <v>1660.389</v>
+        <v>1663.7203</v>
       </c>
       <c r="J8" s="1">
-        <v>69139.58869999999</v>
+        <v>68867.8928</v>
       </c>
       <c r="K8" s="1">
-        <v>60260.6303</v>
+        <v>60260.1081</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5891</v>
+        <v>10.6111</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5750.7423</v>
+        <v>-6049.9562</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1197</v>
+        <v>0.1191</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.5699</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E9" s="1">
-        <v>6175.7811</v>
+        <v>6188.1495</v>
       </c>
       <c r="F9" s="1">
-        <v>532.9748</v>
+        <v>534.0295</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77628.95080000001</v>
+        <v>77629.0974</v>
       </c>
       <c r="I9" s="1">
-        <v>5909.6467</v>
+        <v>5613.7641</v>
       </c>
       <c r="J9" s="1">
-        <v>83538.5975</v>
+        <v>83242.8615</v>
       </c>
       <c r="K9" s="1">
-        <v>66011.3726</v>
+        <v>66310.0643</v>
       </c>
       <c r="L9" s="1">
-        <v>10.6887</v>
+        <v>10.7157</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6699.4403</v>
+        <v>-6726.1554</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,46 +4178,46 @@
         <v>13.5994</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E10" s="1">
-        <v>6708.7559</v>
+        <v>6722.179</v>
       </c>
       <c r="F10" s="1">
-        <v>320.4746</v>
+        <v>321.1387</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>91235.05530000001</v>
+        <v>91234.75780000001</v>
       </c>
       <c r="I10" s="1">
-        <v>9210.2065</v>
+        <v>8887.6088</v>
       </c>
       <c r="J10" s="1">
-        <v>100445.2618</v>
+        <v>100122.3665</v>
       </c>
       <c r="K10" s="1">
-        <v>72710.8129</v>
+        <v>73036.2196</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8382</v>
+        <v>10.865</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2779.1015</v>
+        <v>2784.6673</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-1579.1602</v>
+        <v>-1591.3619</v>
       </c>
       <c r="Q10" s="3">
         <v>0.0738</v>
@@ -4231,34 +4231,34 @@
         <v>14.6663</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E11" s="1">
-        <v>7029.2305</v>
+        <v>7043.3177</v>
       </c>
       <c r="F11" s="1">
-        <v>268.2622</v>
+        <v>268.7829</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>103092.8029</v>
+        <v>103093.0417</v>
       </c>
       <c r="I11" s="1">
-        <v>17631.0463</v>
+        <v>17296.2469</v>
       </c>
       <c r="J11" s="1">
-        <v>120723.8492</v>
+        <v>120389.2886</v>
       </c>
       <c r="K11" s="1">
-        <v>77069.0745</v>
+        <v>77412.2487</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9641</v>
+        <v>10.9909</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3934.4138</v>
+        <v>-3949.9526</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0931</v>
+        <v>0.09320000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>14.701</v>
       </c>
       <c r="C12" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D12" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E12" s="1">
-        <v>7297.4927</v>
+        <v>7312.1006</v>
       </c>
       <c r="F12" s="1">
-        <v>772.205</v>
+        <v>773.7677</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107280.4397</v>
+        <v>107280.2154</v>
       </c>
       <c r="I12" s="1">
-        <v>23696.6326</v>
+        <v>23346.2943</v>
       </c>
       <c r="J12" s="1">
-        <v>130977.0722</v>
+        <v>130626.5097</v>
       </c>
       <c r="K12" s="1">
-        <v>81003.4883</v>
+        <v>81362.2013</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1002</v>
+        <v>11.1271</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11352.1853</v>
+        <v>-11397.9845</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.8109</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E13" s="1">
-        <v>8069.6976</v>
+        <v>8085.8683</v>
       </c>
       <c r="F13" s="1">
-        <v>1372.9972</v>
+        <v>1375.7349</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111449.7871</v>
+        <v>111449.9481</v>
       </c>
       <c r="I13" s="1">
-        <v>22344.4473</v>
+        <v>21948.3098</v>
       </c>
       <c r="J13" s="1">
-        <v>133794.2344</v>
+        <v>133398.258</v>
       </c>
       <c r="K13" s="1">
-        <v>92355.67359999999</v>
+        <v>92760.18580000001</v>
       </c>
       <c r="L13" s="1">
-        <v>11.4448</v>
+        <v>11.4719</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6567.7434</v>
+        <v>6580.8906</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12394.5838</v>
+        <v>-12457.3537</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.051</v>
+        <v>-0.0514</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.9322</v>
       </c>
       <c r="C14" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D14" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E14" s="1">
-        <v>9442.6949</v>
+        <v>9461.6031</v>
       </c>
       <c r="F14" s="1">
-        <v>-9442.6949</v>
+        <v>-9461.6031</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131557.5132</v>
+        <v>131556.9683</v>
       </c>
       <c r="I14" s="1">
-        <v>19949.8635</v>
+        <v>19490.9561</v>
       </c>
       <c r="J14" s="1">
-        <v>151507.3767</v>
+        <v>151047.9244</v>
       </c>
       <c r="K14" s="1">
-        <v>111318.0008</v>
+        <v>111798.4301</v>
       </c>
       <c r="L14" s="1">
-        <v>11.7888</v>
+        <v>11.816</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131557.5132</v>
+        <v>131556.9683</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0536</v>
+        <v>0.0533</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.9223</v>
+        <v>11.946</v>
       </c>
       <c r="D3" s="1">
-        <v>11.6836</v>
+        <v>11.7082</v>
       </c>
       <c r="E3" s="1">
-        <v>11.7171</v>
+        <v>11.7417</v>
       </c>
       <c r="F3" s="1">
-        <v>11.7504</v>
+        <v>11.775</v>
       </c>
       <c r="G3" s="1">
-        <v>11.7888</v>
+        <v>11.816</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.3146</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4304</v>
+        <v>0.4184</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3936</v>
+        <v>0.3837</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3982</v>
+        <v>0.3882</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4028</v>
+        <v>0.3927</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4069</v>
+        <v>0.3963</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1732</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1968</v>
+        <v>0.1978</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1791</v>
+        <v>0.1806</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1811</v>
+        <v>0.1826</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1832</v>
+        <v>0.1848</v>
       </c>
       <c r="G5" s="3">
-        <v>0.185</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.6996</v>
       </c>
       <c r="C6" s="4">
-        <v>2.0844</v>
+        <v>2.0127</v>
       </c>
       <c r="D6" s="4">
-        <v>2.0847</v>
+        <v>2.0126</v>
       </c>
       <c r="E6" s="4">
-        <v>2.0862</v>
+        <v>2.0142</v>
       </c>
       <c r="F6" s="4">
-        <v>2.0876</v>
+        <v>2.0156</v>
       </c>
       <c r="G6" s="4">
-        <v>2.0889</v>
+        <v>2.0166</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5769</v>
+        <v>0.5659</v>
       </c>
       <c r="D7" s="3">
-        <v>0.6048</v>
+        <v>0.594</v>
       </c>
       <c r="E7" s="3">
-        <v>0.6024</v>
+        <v>0.5915</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5999</v>
+        <v>0.5889</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5967</v>
+        <v>0.5852000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>12938.0745</v>
+        <v>12911.8456</v>
       </c>
       <c r="D8" s="1">
-        <v>10677.1652</v>
+        <v>10697.5045</v>
       </c>
       <c r="E8" s="1">
-        <v>10869.4925</v>
+        <v>10890.2168</v>
       </c>
       <c r="F8" s="1">
-        <v>11066.3553</v>
+        <v>11087.4737</v>
       </c>
       <c r="G8" s="1">
-        <v>11267.8643</v>
+        <v>11289.3862</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P10_KFSDIV.xlsx
+++ b/output/1Y_P10_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>12922.8894</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2321</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4843</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.4443</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.4053</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.3662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
